--- a/ДЗ Юзабилити..xlsx
+++ b/ДЗ Юзабилити..xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\ITStep\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C650D41-861A-4516-9268-39FBBC4690D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA1DC9D-1ECB-4C27-905C-73F7EE901B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Верстка" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Функціонал" sheetId="2" r:id="rId3"/>
     <sheet name="Моб.пристрій (сайт)" sheetId="3" r:id="rId4"/>
     <sheet name="Моб.пристрій (додаток)" sheetId="5" r:id="rId5"/>
-    <sheet name="Аркуш1" sheetId="6" r:id="rId6"/>
+    <sheet name="Тестування Гри" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="124">
   <si>
     <t xml:space="preserve"> Сайт 
 opencart.qatestlab.net</t>
@@ -410,13 +410,16 @@
   </si>
   <si>
     <t>Версія ОС 15.7.3</t>
+  </si>
+  <si>
+    <t>Назва додатку Pubg new state</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -493,8 +496,29 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,6 +590,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -588,7 +618,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -725,6 +755,33 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3165,7 +3222,7 @@
   <dimension ref="A1:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3579,7 +3636,7 @@
   </sheetPr>
   <dimension ref="A1:R1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -6896,7 +6953,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F6"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6923,7 +6980,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="52" t="s">
         <v>122</v>
       </c>
       <c r="C2" s="4"/>
@@ -6932,7 +6989,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="13" t="s">
         <v>95</v>
       </c>
       <c r="C3" s="4"/>
@@ -6945,7 +7002,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="12" t="s">
         <v>96</v>
       </c>
       <c r="B4" s="27" t="s">
@@ -6957,7 +7014,7 @@
       <c r="F4" s="45"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="12" t="s">
         <v>97</v>
       </c>
       <c r="B5" s="27" t="s">
@@ -7033,7 +7090,7 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="12" t="s">
         <v>103</v>
       </c>
       <c r="B11" s="21" t="s">
@@ -7125,7 +7182,7 @@
       <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="14" t="s">
         <v>111</v>
       </c>
       <c r="B19" s="21" t="s">
@@ -7253,50 +7310,118 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CFAD8D-5B97-4558-B835-6F6526D4E954}">
-  <dimension ref="E1:F5"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="53.7109375" customWidth="1"/>
-    <col min="2" max="2" width="27.5703125" customWidth="1"/>
-    <col min="3" max="3" width="36.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" customWidth="1"/>
+    <col min="3" max="3" width="36.5703125" customWidth="1"/>
     <col min="5" max="5" width="9.140625" customWidth="1"/>
+    <col min="6" max="6" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="49" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="51"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="5:6" x14ac:dyDescent="0.2">
-      <c r="E2" s="46" t="s">
+    <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B2" s="53" t="s">
+        <v>122</v>
+      </c>
+      <c r="E2" s="47" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="45" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="5:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>9</v>
+      </c>
       <c r="E3" s="46"/>
       <c r="F3" s="45"/>
     </row>
-    <row r="4" spans="5:6" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="E4" s="26" t="s">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="32" t="s">
         <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="5:6" ht="89.25" x14ac:dyDescent="0.2">
-      <c r="E5" s="24" t="s">
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="48" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -7325,5 +7450,6 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ДЗ Юзабилити..xlsx
+++ b/ДЗ Юзабилити..xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\ITStep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fanat\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA1DC9D-1ECB-4C27-905C-73F7EE901B42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D59AFE-D011-4161-A542-E75A88A596C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Верстка" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="127">
   <si>
     <t xml:space="preserve"> Сайт 
 opencart.qatestlab.net</t>
@@ -413,6 +413,15 @@
   </si>
   <si>
     <t>Назва додатку Pubg new state</t>
+  </si>
+  <si>
+    <t>При регистрации на сайте http://opencart.qatestlab.net/ нельзя писать буквы в строке Фамилия</t>
+  </si>
+  <si>
+    <t>http://opencart.qatestlab.net/index.php?route=account/register</t>
+  </si>
+  <si>
+    <t>https://qa31.mantishub.io/view.php?id=84</t>
   </si>
 </sst>
 </file>
@@ -747,18 +756,6 @@
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -783,11 +780,23 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Гарний" xfId="2" builtinId="26"/>
-    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
-    <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Хороший" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="40">
     <dxf>
@@ -1854,12 +1863,12 @@
       <c r="Q1" s="15"/>
     </row>
     <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
     </row>
@@ -1949,12 +1958,12 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="44"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
       <c r="E7" s="4"/>
     </row>
     <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -2022,12 +2031,12 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
+      <c r="B12" s="52"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
@@ -2064,12 +2073,12 @@
       <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="44" t="s">
+      <c r="A15" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
+      <c r="B15" s="52"/>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
@@ -3221,8 +3230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:R23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3532,12 +3541,25 @@
       </c>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
+    <row r="16" spans="1:18" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>126</v>
+      </c>
       <c r="G16" s="4"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -3623,9 +3645,11 @@
     <hyperlink ref="F14" r:id="rId2" xr:uid="{6F86BDC9-6CE9-4859-9FEF-EB1902FA947D}"/>
     <hyperlink ref="B15" r:id="rId3" xr:uid="{9C88D090-78C6-4E03-98AD-AD7775056C6F}"/>
     <hyperlink ref="F15" r:id="rId4" xr:uid="{8ACDEC54-DB25-49BB-9233-F993C8BB7CC5}"/>
+    <hyperlink ref="B16" r:id="rId5" xr:uid="{5D0371BC-B8B2-4E63-A7C9-385C385837E7}"/>
+    <hyperlink ref="F16" r:id="rId6" xr:uid="{8B7688CD-9385-4D29-A232-FA41837709AA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -5324,7 +5348,7 @@
     <col min="11" max="16" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
         <v>78</v>
       </c>
@@ -5391,10 +5415,10 @@
       <c r="B4" s="43"/>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="46" t="s">
+      <c r="E4" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="53" t="s">
         <v>7</v>
       </c>
       <c r="G4" s="4"/>
@@ -5415,8 +5439,8 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="45"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -6980,7 +7004,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
-      <c r="B2" s="52" t="s">
+      <c r="B2" s="48" t="s">
         <v>122</v>
       </c>
       <c r="C2" s="4"/>
@@ -6994,10 +7018,10 @@
       </c>
       <c r="C3" s="4"/>
       <c r="D3" s="4"/>
-      <c r="E3" s="46" t="s">
+      <c r="E3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="53" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7010,8 +7034,8 @@
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="45"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="53"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A5" s="12" t="s">
@@ -7312,7 +7336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8CFAD8D-5B97-4558-B835-6F6526D4E954}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -7326,27 +7350,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="78" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="51"/>
+      <c r="D1" s="47"/>
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="53" t="s">
         <v>7</v>
       </c>
     </row>
@@ -7354,17 +7378,17 @@
       <c r="A3" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="46"/>
-      <c r="F3" s="45"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="53"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="55" t="s">
+      <c r="B4" s="51" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="32" t="s">
@@ -7378,10 +7402,10 @@
       <c r="A5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="44" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
@@ -7392,7 +7416,7 @@
       <c r="A6" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="51" t="s">
         <v>6</v>
       </c>
     </row>
@@ -7405,7 +7429,7 @@
       <c r="A8" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="54" t="s">
+      <c r="B8" s="50" t="s">
         <v>9</v>
       </c>
     </row>
